--- a/Data/Exports/semi structured form 2 .pdf_1-1.xlsx
+++ b/Data/Exports/semi structured form 2 .pdf_1-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
     <x:t>invoiceNumber</x:t>
   </x:si>
@@ -23,28 +23,31 @@
     <x:t>invoiceNumber - Confidence</x:t>
   </x:si>
   <x:si>
+    <x:t>InvoiceDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InvoiceDate - Confidence</x:t>
+  </x:si>
+  <x:si>
     <x:t>receiver</x:t>
   </x:si>
   <x:si>
     <x:t>receiver - Confidence</x:t>
   </x:si>
   <x:si>
-    <x:t>items</x:t>
-  </x:si>
-  <x:si>
-    <x:t>items - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>00720/01/20</x:t>
   </x:si>
   <x:si>
-    <x:t>0.9171605</x:t>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03.07.2020</x:t>
   </x:si>
   <x:si>
     <x:t>ИЗ АГРО НЕЛА с.Дорфулија, опш.Лозово СВЕТИ НИКОЛЕ</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
+    <x:t>2020-07-03</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -432,7 +435,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>9</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -483,10 +492,16 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>9</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Exports/semi structured form 2 .pdf_1-1.xlsx
+++ b/Data/Exports/semi structured form 2 .pdf_1-1.xlsx
@@ -8,8 +8,6 @@
   <x:sheets>
     <x:sheet name="Simple Fields" sheetId="2" r:id="rId2"/>
     <x:sheet name="Simple Fields - Formatted" sheetId="5" r:id="rId5"/>
-    <x:sheet name="items" sheetId="7" r:id="rId7"/>
-    <x:sheet name="items - Formatted" sheetId="8" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -17,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
     <x:t>invoiceNumber</x:t>
   </x:si>
@@ -37,64 +35,19 @@
     <x:t>receiver - Confidence</x:t>
   </x:si>
   <x:si>
-    <x:t>items</x:t>
-  </x:si>
-  <x:si>
-    <x:t>items - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>00720/01/20</x:t>
   </x:si>
   <x:si>
-    <x:t>0.9972635</x:t>
+    <x:t>1</x:t>
   </x:si>
   <x:si>
     <x:t>03.07.2020</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>АГРО НЕЛА</x:t>
-  </x:si>
-  <x:si>
-    <x:t>table</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.7026919</x:t>
+    <x:t>ИЗ АГРО НЕЛА с.Дорфулија, опш.Лозово СВЕТИ НИКОЛЕ</x:t>
   </x:si>
   <x:si>
     <x:t>2020-07-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>description - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rate - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>quantity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>quantity - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lineAmount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lineAmount - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Трактор John Deere 6195М со кабина</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -451,7 +404,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -470,37 +423,25 @@
       <x:c r="F1" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -523,7 +464,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -542,157 +483,25 @@
       <x:c r="F1" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:8">
-      <x:c r="A1" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:8">
-      <x:c r="A1" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Exports/semi structured form 2 .pdf_1-1.xlsx
+++ b/Data/Exports/semi structured form 2 .pdf_1-1.xlsx
@@ -8,6 +8,8 @@
   <x:sheets>
     <x:sheet name="Simple Fields" sheetId="2" r:id="rId2"/>
     <x:sheet name="Simple Fields - Formatted" sheetId="5" r:id="rId5"/>
+    <x:sheet name="items" sheetId="7" r:id="rId7"/>
+    <x:sheet name="items - Formatted" sheetId="8" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -15,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:t>invoiceNumber</x:t>
   </x:si>
@@ -35,19 +37,64 @@
     <x:t>receiver - Confidence</x:t>
   </x:si>
   <x:si>
+    <x:t>items</x:t>
+  </x:si>
+  <x:si>
+    <x:t>items - Confidence</x:t>
+  </x:si>
+  <x:si>
     <x:t>00720/01/20</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9972635</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03.07.2020</x:t>
+  </x:si>
+  <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>03.07.2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ИЗ АГРО НЕЛА с.Дорфулија, опш.Лозово СВЕТИ НИКОЛЕ</x:t>
+    <x:t>АГРО НЕЛА</x:t>
+  </x:si>
+  <x:si>
+    <x:t>table</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.7026919</x:t>
   </x:si>
   <x:si>
     <x:t>2020-07-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>description - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rate - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>quantity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>quantity - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lineAmount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lineAmount - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Трактор John Deere 6195М со кабина</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -404,7 +451,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -423,25 +470,37 @@
       <x:c r="F1" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -464,7 +523,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -483,25 +542,157 @@
       <x:c r="F1" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Exports/semi structured form 2 .pdf_1-1.xlsx
+++ b/Data/Exports/semi structured form 2 .pdf_1-1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <x:si>
     <x:t>invoiceNumber</x:t>
   </x:si>
@@ -85,41 +85,26 @@
     <x:t>lineAmount - Confidence</x:t>
   </x:si>
   <x:si>
-    <x:t>1. Трактор John Deere 6195М со кабина</x:t>
-  </x:si>
-  <x:si>
-    <x:t>пар</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,861,500.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. Комбајн многу добар</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,561,500.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.Гребло</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.000</x:t>
+    <x:t>1. Трактор John Deere 6195М со кабина 2. Комбајн многу добар 3.Гребло</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,861,500.00 2,561,500.00 1.000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00 2.00 3.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.00</x:t>
   </x:si>
   <x:si>
     <x:t>Key,Value
 "Value",""</x:t>
   </x:si>
   <x:si>
-    <x:t>1000.00</x:t>
+    <x:t>100200300.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -165,31 +150,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="14">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -657,7 +618,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H4"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -712,58 +673,6 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8">
-      <x:c r="A3" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8">
-      <x:c r="A4" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -781,7 +690,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H4"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -821,73 +730,21 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>24</x:v>
+      <x:c r="E2" s="0" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>32</x:v>
+      <x:c r="G2" s="0" t="s">
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8">
-      <x:c r="A3" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8">
-      <x:c r="A4" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>

--- a/Data/Exports/semi structured form 2 .pdf_1-1.xlsx
+++ b/Data/Exports/semi structured form 2 .pdf_1-1.xlsx
@@ -150,7 +150,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="6">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
